--- a/practo.xlsx
+++ b/practo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/sripathi-archana_sripathi-archana_capgemini_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="872" documentId="8_{9C546930-8B69-4C9E-BD8F-2AFCD3A3C255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30776584-E3F8-4947-A15A-EF78465D662F}"/>
+  <xr:revisionPtr revIDLastSave="983" documentId="8_{9C546930-8B69-4C9E-BD8F-2AFCD3A3C255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15D0457E-3B3C-4E89-80A1-F7A5C97FDE3C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="4" xr2:uid="{1B38878B-E52D-41D6-AF28-796044FA178D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="3" xr2:uid="{1B38878B-E52D-41D6-AF28-796044FA178D}"/>
   </bookViews>
   <sheets>
     <sheet name="UserStory" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Practo_TestCases" sheetId="4" r:id="rId3"/>
     <sheet name="Defect Report" sheetId="3" r:id="rId4"/>
     <sheet name="RTM" sheetId="5" r:id="rId5"/>
-    <sheet name="Summary Report" sheetId="6" r:id="rId6"/>
+    <sheet name="Test Execution Summary Report" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,12 +41,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="221">
   <si>
     <t>Issue Type</t>
-  </si>
-  <si>
-    <t>Summary (Edureaka Website)</t>
   </si>
   <si>
     <t>Priority</t>
@@ -572,9 +569,6 @@
     <t xml:space="preserve">Verify location with invalid input </t>
   </si>
   <si>
-    <t>Defect Id.</t>
-  </si>
-  <si>
     <t>Module name</t>
   </si>
   <si>
@@ -687,6 +681,110 @@
   <si>
     <t>1. Enter valid location “Bangalore” &amp; 
 click search → Verify clinics appear</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Module Name</t>
+  </si>
+  <si>
+    <t>Total Cases</t>
+  </si>
+  <si>
+    <t>Total Passed</t>
+  </si>
+  <si>
+    <t>Total Failed</t>
+  </si>
+  <si>
+    <t>Total Excecuted</t>
+  </si>
+  <si>
+    <t>Pass Percentage</t>
+  </si>
+  <si>
+    <t>Fail Percentage</t>
+  </si>
+  <si>
+    <t>Compilation Percentage</t>
+  </si>
+  <si>
+    <t>Practo</t>
+  </si>
+  <si>
+    <t>Summary (Practo Website)</t>
+  </si>
+  <si>
+    <t>Post Condition</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>Type of Testing</t>
+  </si>
+  <si>
+    <t>Defect Id</t>
+  </si>
+  <si>
+    <t>OTP field should not appear
+ when mobile number is invalid</t>
+  </si>
+  <si>
+    <t>When user enters an invalid
+location, system shows clinic list instead of error alert</t>
+  </si>
+  <si>
+    <t>Defect description</t>
+  </si>
+  <si>
+    <t>Steps to Reproduce</t>
+  </si>
+  <si>
+    <t>1. Open Search Clinic page
+2. Enter location “fgsdfgd”
+3. Click Search</t>
+  </si>
+  <si>
+    <t>1. Open Appointment page
+2. Enter invalid mobile number
+3. Click Continue</t>
+  </si>
+  <si>
+    <t>Error message should appear for
+invalid location</t>
+  </si>
+  <si>
+    <t>Only error message should appear, OTP field should not show</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Clinic list is displayed instead of error message</t>
+  </si>
+  <si>
+    <t>Error message appears but OTP 
+entry field is also displayed</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Reported By</t>
+  </si>
+  <si>
+    <t>Date Reported</t>
+  </si>
+  <si>
+    <t>Environment Details</t>
+  </si>
+  <si>
+    <t>Attachments</t>
   </si>
 </sst>
 </file>
@@ -778,7 +876,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,7 +909,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -822,7 +920,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -836,31 +933,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -872,6 +950,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -889,10 +997,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1215,202 +1319,202 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18" style="4" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
     <col min="3" max="3" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="17" customFormat="1" ht="47.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:3" s="19" customFormat="1" ht="47.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+    </row>
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="B2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="11" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="10" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+      <c r="B19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
+      <c r="B21" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1423,8 +1527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF48F2C-1310-421E-B922-FBF3836AB6B1}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1437,84 +1541,84 @@
     <col min="6" max="6" width="50.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="17" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:6" s="19" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="144.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="144.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="24" t="s">
+      <c r="D2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="14">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="56" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="B3" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="24">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="56" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="24" t="s">
+      <c r="D3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="24">
+      <c r="E3" s="14">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="D4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="14">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="24">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1524,10 +1628,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E6BE34-8595-4807-82B2-3C81358CFB05}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1540,481 +1644,503 @@
     <col min="6" max="6" width="26.36328125" customWidth="1"/>
     <col min="7" max="7" width="34.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.90625" customWidth="1"/>
-    <col min="9" max="9" width="12.1796875" customWidth="1"/>
-    <col min="10" max="10" width="25.1796875" customWidth="1"/>
+    <col min="9" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="12.1796875" customWidth="1"/>
+    <col min="12" max="12" width="12.1796875" style="27" customWidth="1"/>
+    <col min="13" max="13" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:13" s="19" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="K1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="L1" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="M1" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="20" t="s">
+    </row>
+    <row r="2" spans="1:13" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="M5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="47" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="M7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" t="s">
+        <v>184</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G14" t="s">
+        <v>187</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="M15" t="s">
         <v>123</v>
       </c>
-      <c r="C2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="J2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="J3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="F4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="J4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" t="s">
-        <v>102</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="J5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="37" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="J6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="J7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="J8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" t="s">
-        <v>86</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="J9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F10" t="s">
-        <v>121</v>
-      </c>
-      <c r="G10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="J10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="37" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="16" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" t="s">
         <v>148</v>
       </c>
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" t="s">
-        <v>87</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" t="s">
-        <v>148</v>
-      </c>
-      <c r="D12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" t="s">
-        <v>88</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="J12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" t="s">
-        <v>89</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="J13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>183</v>
-      </c>
-      <c r="B14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" t="s">
-        <v>148</v>
-      </c>
-      <c r="D14" t="s">
-        <v>186</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G14" t="s">
-        <v>189</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="J14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>184</v>
-      </c>
-      <c r="B15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
         <v>79</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G16" t="s">
         <v>90</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="K16" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>185</v>
-      </c>
-      <c r="B16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" t="s">
-        <v>149</v>
-      </c>
-      <c r="D16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" t="s">
-        <v>91</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="J16" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2025,107 +2151,185 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04059D90-B891-496C-8D2A-57A82E57F522}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.81640625" customWidth="1"/>
     <col min="2" max="2" width="20.36328125" customWidth="1"/>
-    <col min="3" max="3" width="36.1796875" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" customWidth="1"/>
-    <col min="5" max="5" width="27.81640625" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" customWidth="1"/>
+    <col min="3" max="3" width="26.453125" customWidth="1"/>
+    <col min="4" max="5" width="36.1796875" customWidth="1"/>
+    <col min="6" max="8" width="28.26953125" customWidth="1"/>
+    <col min="9" max="9" width="15.7265625" customWidth="1"/>
+    <col min="10" max="10" width="27.81640625" customWidth="1"/>
+    <col min="11" max="11" width="16.54296875" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" customWidth="1"/>
+    <col min="13" max="13" width="14.1796875" customWidth="1"/>
+    <col min="14" max="14" width="18.26953125" customWidth="1"/>
+    <col min="15" max="15" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:15" s="19" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="E1" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="I1" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="J1" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="K1" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="L1" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="28" customFormat="1" ht="92" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="K2" s="11" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+    <row r="3" spans="1:15" s="28" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="23"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="23"/>
+      <c r="E3" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="13"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="23"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" s="13"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" tooltip="mailto:abc@capgemini.com" display="mailto:abc@capgemini.com" xr:uid="{6D48AFB8-8B50-4739-8C4E-3FBEBA9F6CEB}"/>
+    <hyperlink ref="J2" r:id="rId1" tooltip="mailto:abc@capgemini.com" display="mailto:abc@capgemini.com" xr:uid="{6D48AFB8-8B50-4739-8C4E-3FBEBA9F6CEB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2135,8 +2339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A17493C7-2BAE-4783-BDD7-A9A93EB695D2}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2148,285 +2352,285 @@
     <col min="6" max="6" width="25.81640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="15" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:6" s="21" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="D1" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="E1" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="F1" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="E1" s="15" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="B2" s="15" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
+      <c r="C2" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="F5" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" s="3" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="15" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="25" t="s">
+      <c r="B11" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="F15" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2437,14 +2641,84 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BC4B6D-A6B1-48EC-9AF8-DA88E81EE72B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.90625" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" customWidth="1"/>
+    <col min="4" max="4" width="14.90625" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" customWidth="1"/>
+    <col min="7" max="7" width="16.90625" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="13">
+        <v>15</v>
+      </c>
+      <c r="D2" s="13">
+        <v>13</v>
+      </c>
+      <c r="E2" s="13">
+        <v>2</v>
+      </c>
+      <c r="F2" s="13">
+        <v>15</v>
+      </c>
+      <c r="G2" s="17">
+        <v>0.87</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0.1333</v>
+      </c>
+      <c r="I2" s="13">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
